--- a/biology/Zoologie/Belle_et_Sébastien___Nouvelle_Génération/Belle_et_Sébastien___Nouvelle_Génération.xlsx
+++ b/biology/Zoologie/Belle_et_Sébastien___Nouvelle_Génération/Belle_et_Sébastien___Nouvelle_Génération.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_Nouvelle_G%C3%A9n%C3%A9ration</t>
+          <t>Belle_et_Sébastien_:_Nouvelle_Génération</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belle et Sébastien : Nouvelle Génération est un film français réalisé par Pierre Coré et sorti en 2022. Il s'agit d'une nouvelle adaptation de l'œuvre de Cécile Aubry, ici située dans le monde moderne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belle et Sébastien : Nouvelle Génération est un film français réalisé par Pierre Coré et sorti en 2022. Il s'agit d'une nouvelle adaptation de l'œuvre de Cécile Aubry, ici située dans le monde moderne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_Nouvelle_G%C3%A9n%C3%A9ration</t>
+          <t>Belle_et_Sébastien_:_Nouvelle_Génération</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Âgé de 10 ans, Sébastien est un garçon de la ville, passionné de skateboard. Il doit à contrecœur passer les vacances à la montagne, dans les Hautes-Pyrénées, chez sa grand-mère et sa tante. Il doit les aider à faire la transhumance. Le jeune garçon va faire la rencontre d'une grande chienne blanche — un chien de montagne des Pyrénées — maltraitée par son maître. Bien décidé à sauver sa nouvelle amie, Sébastien va vivre une incroyable aventure[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Âgé de 10 ans, Sébastien est un garçon de la ville, passionné de skateboard. Il doit à contrecœur passer les vacances à la montagne, dans les Hautes-Pyrénées, chez sa grand-mère et sa tante. Il doit les aider à faire la transhumance. Le jeune garçon va faire la rencontre d'une grande chienne blanche — un chien de montagne des Pyrénées — maltraitée par son maître. Bien décidé à sauver sa nouvelle amie, Sébastien va vivre une incroyable aventure.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_Nouvelle_G%C3%A9n%C3%A9ration</t>
+          <t>Belle_et_Sébastien_:_Nouvelle_Génération</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original : Belle et Sébastien : Nouvelle Génération
-Réalisation : Pierre Coré[3]
+Réalisation : Pierre Coré
 Scénario : Pierre Coré et Alexandre Coffre, d'après le roman de Cécile Aubry
 Musique : David Menke
 Décors : Philippe Chiffre
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_Nouvelle_G%C3%A9n%C3%A9ration</t>
+          <t>Belle_et_Sébastien_:_Nouvelle_Génération</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Allociné.
 Robinson Mensah-Rouanet : Sébastien
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_Nouvelle_G%C3%A9n%C3%A9ration</t>
+          <t>Belle_et_Sébastien_:_Nouvelle_Génération</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,9 +654,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage débute en août 2021 et s'achève en octobre de la même année. Il se déroule dans les Hautes-Pyrénées[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute en août 2021 et s'achève en octobre de la même année. Il se déroule dans les Hautes-Pyrénées.
 </t>
         </is>
       </c>
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_Nouvelle_G%C3%A9n%C3%A9ration</t>
+          <t>Belle_et_Sébastien_:_Nouvelle_Génération</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,14 +689,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-En France, le site Allociné donne une note de 3,2⁄5, après avoir recensé 6 articles de presse[4].
-La presse ne s'est pas beaucoup intéressée au film au moment de sa sortie, mais elle reste globalement positive quant au film[4]. Pour CNews, « Sur fond de prise de conscience environnementale, Pierre Coré signe un beau film aux paysages époustouflants, qui rappelle à quel point la communication est essentielle au sein d’une famille, et parle à la nouvelle génération, en intégrant ses codes, comme les selfies et Instagram. »[5].
-Pour le journal La Croix : « À défaut d’une réelle originalité, on retrouve dans cette nouvelle version les ingrédients du succès : l’amitié salvatrice d’un enfant et d’un chien, tout comme d’époustouflants paysages de montagne qui donnent au film les vertus bienfaisantes d’une grande bouffée d’air frais »[6].
-Pour Le Parisien-Aujourd'hui en France : « Si on tremble un peu lors de l’attaque de loups, on peine à s’émouvoir pour des personnages franchement antipathiques, entre la grand-mère brutale, la tante égoïste et « Gas », improbable de cynisme. Même le chien manque de charisme et ce « Belle et Sébastien », lui, manque de chien. »[7].
-Box-office
-Pour son premier jour d'exploitation, Belle et Sébastien : Nouvelle Génération réalise 28 753 entrées (dont 17 644 en avant-première), pour 612 copies, se classant quatrième du box-office des nouveautés derrière Le Nouveau Jouet et devant Reprise en main (12 148)[8]. Au bout d'une première semaine d'exploitation, le long-métrage familial réalise 179 709 entrées, pour une cinquième position, derrière Le Nouveau Jouet  (271 139) et devant Smile (175 876)[9].
-En semaine 2, le long-métrage réalise 171 196 entrées pour une neuvième place au classement du box-office français, derrière La Proie du diable (209 337)[10]. La semaine suivante, Belle et Sébastien remonte dans le classement à la septième place avec 159 113 entrées supplémentaires, derrière Le Nouveau Jouet (199 366) et devant Plancha (145 563)[11].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné donne une note de 3,2⁄5, après avoir recensé 6 articles de presse.
+La presse ne s'est pas beaucoup intéressée au film au moment de sa sortie, mais elle reste globalement positive quant au film. Pour CNews, « Sur fond de prise de conscience environnementale, Pierre Coré signe un beau film aux paysages époustouflants, qui rappelle à quel point la communication est essentielle au sein d’une famille, et parle à la nouvelle génération, en intégrant ses codes, comme les selfies et Instagram. ».
+Pour le journal La Croix : « À défaut d’une réelle originalité, on retrouve dans cette nouvelle version les ingrédients du succès : l’amitié salvatrice d’un enfant et d’un chien, tout comme d’époustouflants paysages de montagne qui donnent au film les vertus bienfaisantes d’une grande bouffée d’air frais ».
+Pour Le Parisien-Aujourd'hui en France : « Si on tremble un peu lors de l’attaque de loups, on peine à s’émouvoir pour des personnages franchement antipathiques, entre la grand-mère brutale, la tante égoïste et « Gas », improbable de cynisme. Même le chien manque de charisme et ce « Belle et Sébastien », lui, manque de chien. ».
 </t>
         </is>
       </c>
@@ -687,7 +709,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien_:_Nouvelle_G%C3%A9n%C3%A9ration</t>
+          <t>Belle_et_Sébastien_:_Nouvelle_Génération</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,13 +724,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour son premier jour d'exploitation, Belle et Sébastien : Nouvelle Génération réalise 28 753 entrées (dont 17 644 en avant-première), pour 612 copies, se classant quatrième du box-office des nouveautés derrière Le Nouveau Jouet et devant Reprise en main (12 148). Au bout d'une première semaine d'exploitation, le long-métrage familial réalise 179 709 entrées, pour une cinquième position, derrière Le Nouveau Jouet  (271 139) et devant Smile (175 876).
+En semaine 2, le long-métrage réalise 171 196 entrées pour une neuvième place au classement du box-office français, derrière La Proie du diable (209 337). La semaine suivante, Belle et Sébastien remonte dans le classement à la septième place avec 159 113 entrées supplémentaires, derrière Le Nouveau Jouet (199 366) et devant Plancha (145 563).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Belle_et_Sébastien_:_Nouvelle_Génération</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_et_S%C3%A9bastien_:_Nouvelle_G%C3%A9n%C3%A9ration</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sélections
-Festival du film francophone d'Angoulême 2022 : avant-premières.</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival du film francophone d'Angoulême 2022 : avant-premières.</t>
         </is>
       </c>
     </row>
